--- a/taylor-shellfish-sept2025/data/metadata/taylor-shellfish-sept2025-plates.xlsx
+++ b/taylor-shellfish-sept2025/data/metadata/taylor-shellfish-sept2025-plates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-family-screenings/taylor-shellfish-sept2025/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF12AFA-0FE6-8A45-96C0-9C157A775D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1AFD5-EC65-454C-BEB3-24F7E01AFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="13220" windowHeight="17200" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -44,7 +44,124 @@
     <t>plate</t>
   </si>
   <si>
-    <t>family</t>
+    <t>family-rows7-12</t>
+  </si>
+  <si>
+    <t>family-rows1-6</t>
+  </si>
+  <si>
+    <t>plate1</t>
+  </si>
+  <si>
+    <t>plate2</t>
+  </si>
+  <si>
+    <t>plate3</t>
+  </si>
+  <si>
+    <t>plate4</t>
+  </si>
+  <si>
+    <t>plate5</t>
+  </si>
+  <si>
+    <t>plate6</t>
+  </si>
+  <si>
+    <t>plate7</t>
+  </si>
+  <si>
+    <t>plate8</t>
+  </si>
+  <si>
+    <t>plate9</t>
+  </si>
+  <si>
+    <t>plate10</t>
+  </si>
+  <si>
+    <t>plate11</t>
+  </si>
+  <si>
+    <t>plate12</t>
+  </si>
+  <si>
+    <t>plate13</t>
+  </si>
+  <si>
+    <t>plate14</t>
+  </si>
+  <si>
+    <t>plate15</t>
+  </si>
+  <si>
+    <t>plate16</t>
+  </si>
+  <si>
+    <t>plate17</t>
+  </si>
+  <si>
+    <t>plate18</t>
+  </si>
+  <si>
+    <t>plate19</t>
+  </si>
+  <si>
+    <t>plate20</t>
+  </si>
+  <si>
+    <t>plate21</t>
+  </si>
+  <si>
+    <t>plate22</t>
+  </si>
+  <si>
+    <t>plate23</t>
+  </si>
+  <si>
+    <t>plate24</t>
+  </si>
+  <si>
+    <t>plate25</t>
+  </si>
+  <si>
+    <t>plate26</t>
+  </si>
+  <si>
+    <t>plate27</t>
+  </si>
+  <si>
+    <t>plate28</t>
+  </si>
+  <si>
+    <t>plate29</t>
+  </si>
+  <si>
+    <t>plate30</t>
+  </si>
+  <si>
+    <t>plate31</t>
+  </si>
+  <si>
+    <t>plate32</t>
+  </si>
+  <si>
+    <t>plate33</t>
+  </si>
+  <si>
+    <t>plate34</t>
+  </si>
+  <si>
+    <t>plate35</t>
+  </si>
+  <si>
+    <t>plate36</t>
+  </si>
+  <si>
+    <t>plate37</t>
+  </si>
+  <si>
+    <t>plate38</t>
   </si>
 </sst>
 </file>
@@ -432,16 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
   <dimension ref="A1:G1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,346 +568,541 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20250903</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="C2">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20250903</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20250903</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20250903</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20250903</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20250903</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20250903</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20250903</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20250903</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20250903</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20250903</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="C12">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20250903</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="C13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20250903</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20250903</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20250903</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20250903</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20250903</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20250903</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="C19">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20250903</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="C20">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20250903</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20250903</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="C22">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20250903</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27">
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20250903</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28">
+      <c r="C24">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20250903</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20250903</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="C26">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20250903</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31">
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250903</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32">
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20250903</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33">
+      <c r="C29">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250903</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34">
+      <c r="C30">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20250903</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35">
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250903</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36">
+      <c r="C32">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37">
+      <c r="D32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250903</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250903</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38">
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250903</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39">
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250903</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40">
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250903</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41">
+      <c r="C37">
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250903</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42">
+      <c r="C38">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250903</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44">
+      <c r="C39">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69">
+      <c r="D39">
         <v>68</v>
       </c>
     </row>

--- a/taylor-shellfish-sept2025/data/metadata/taylor-shellfish-sept2025-plates.xlsx
+++ b/taylor-shellfish-sept2025/data/metadata/taylor-shellfish-sept2025-plates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-family-screenings/taylor-shellfish-sept2025/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1AFD5-EC65-454C-BEB3-24F7E01AFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A811DC-2BEC-1B46-BA9A-8BECD4E972EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
   <dimension ref="A1:G1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1106,272 @@
         <v>68</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20250904</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250904</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20250904</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250904</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20250904</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250904</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20250904</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250904</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20250904</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250904</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20250904</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>82</v>
+      </c>
+      <c r="D50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20250904</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20250904</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20250904</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20250904</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20250904</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>69</v>
+      </c>
+      <c r="D55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20250904</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20250904</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>87</v>
+      </c>
+      <c r="D57">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20250904</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>93</v>
+      </c>
+      <c r="D58">
+        <v>96</v>
+      </c>
+    </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1250" s="1"/>
       <c r="B1250" s="1"/>
